--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3407.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3407.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.449415386492221</v>
+        <v>2.046640396118164</v>
       </c>
       <c r="B1">
-        <v>1.663372654564643</v>
+        <v>6.173583984375</v>
       </c>
       <c r="C1">
-        <v>2.08628942911214</v>
+        <v>3.201253414154053</v>
       </c>
       <c r="D1">
-        <v>4.278688760384404</v>
+        <v>1.410980701446533</v>
       </c>
       <c r="E1">
-        <v>4.517211037423423</v>
+        <v>0.9910504817962646</v>
       </c>
     </row>
   </sheetData>
